--- a/biology/Botanique/Phyllostachys_bissetii/Phyllostachys_bissetii.xlsx
+++ b/biology/Botanique/Phyllostachys_bissetii/Phyllostachys_bissetii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phyllostachys bissetii est une espèce de bambous, famille des Poaceae. Phyllostachys bissetii est vigoureux, rustique et d’un beau feuillage vert foncé lustré dense et souple. Les feuilles sont plutôt petites (9 cm de long par 1,5 cm de large) mais nombreuses. Le feuillage est toujours brillant et frais. Vert moyen puis vert olive, ses chaumes changent très peu de teinte en vieillissant.
 C’est un bambou qui a besoin d’espace pour s’épanouir, mais discipliné par des tailles, il pourra tenir confortablement en pot.
@@ -520,7 +532,9 @@
           <t>Fiche Botanique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Classification : Moyen
 Origines géographiques : Originaire des provinces du Sichuan et de Zhejiang (centre et est de la Chine).
